--- a/Symal/30513/res_1630-P200-SYM-QAC-ITP-0033.00.IFU.xlsx
+++ b/Symal/30513/res_1630-P200-SYM-QAC-ITP-0033.00.IFU.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Symal\30513\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D98E58-0907-4C31-9CEE-9651CDC83911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B14FCB-50B3-4734-AF9C-D08DF65C89C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="1080" windowWidth="29265" windowHeight="19920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7755" yWindow="705" windowWidth="29265" windowHeight="19920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$1:$H$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$1:$H$191</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="146">
   <si>
     <t>type</t>
   </si>
@@ -70,48 +70,9 @@
     <t xml:space="preserve">Remarks/record (eg. Test frequency reports, certificates, checklist etc) - </t>
   </si>
   <si>
-    <t xml:space="preserve">Acceptance criteria - </t>
-  </si>
-  <si>
     <t>1.0 Pre-start activities</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ref docs - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freq - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Key - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resp - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI Key - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3 - </t>
-  </si>
-  <si>
     <t>ITP Type - New</t>
   </si>
   <si>
@@ -139,37 +100,367 @@
     <t>8.0 Completion</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1 - </t>
-  </si>
-  <si>
     <t>9.0 Work Lot Close Out</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5 - </t>
+    <t xml:space="preserve">1.1 - Pre-Installation Meeting </t>
+  </si>
+  <si>
+    <t>Ref docs - VR Clause 730.08(c)</t>
+  </si>
+  <si>
+    <t>Acceptance criteria - The Contractor shall not commence installation of the traffic signal pedestals, poles, controller bases or pits until the Pre-Installation Report has been approved.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approval to Proceed? </t>
+  </si>
+  <si>
+    <t>Yes,No</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>Freq - Each lot</t>
+  </si>
+  <si>
+    <t>Key - H, S</t>
+  </si>
+  <si>
+    <t>Resp - SE</t>
+  </si>
+  <si>
+    <t>SI Key - H</t>
+  </si>
+  <si>
+    <t>AUTHORITY HOLDPOINT</t>
+  </si>
+  <si>
+    <t>holdpoint</t>
+  </si>
+  <si>
+    <t>2.1 - Excavation and Cover Requirements</t>
+  </si>
+  <si>
+    <t>Ref docs - VR Clause 733.05 Table 733.051</t>
+  </si>
+  <si>
+    <t>Acceptance criteria - Cover requirements for both electrical and communications conduits shall be:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has all the above been completed and approved? </t>
+  </si>
+  <si>
+    <t>○ Pavement surface to top of conduit minimum 1200 mm.</t>
+  </si>
+  <si>
+    <t>○ Invert of open drain to top of conduit minimum 750 mm.</t>
+  </si>
+  <si>
+    <t>○ Unpaved areas to top of conduit minimum 600 mm.</t>
+  </si>
+  <si>
+    <t>○ Or else as specified on design drawings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freq - Each Lot &amp; Each possession </t>
+  </si>
+  <si>
+    <t>Key - S</t>
+  </si>
+  <si>
+    <t>Resp - SE/SS</t>
+  </si>
+  <si>
+    <t>3.1 - General</t>
+  </si>
+  <si>
+    <t>Ref docs - VR Clause 730.09</t>
+  </si>
+  <si>
+    <t>Acceptance criteria - The Contractor shall install all conduits in accordance with Section 733 and Technical Note TCN 010.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has all of the above been completed? </t>
+  </si>
+  <si>
+    <t>○ All communication conduit installation works are to be carried out under the ‘on site’ supervision of a licensed cabler.</t>
+  </si>
+  <si>
+    <t>○ All electrical conduit installation works for traffic signals must be carried out by, or under the direct supervision of, a VicRoads prequalified traffic signal Contractor and in accordance with the requirements of Energy Safe Victoria.</t>
+  </si>
+  <si>
+    <t>Freq - Each Lot &amp; Each possession</t>
+  </si>
+  <si>
+    <t>Key - R</t>
+  </si>
+  <si>
+    <t>3.2 - General</t>
+  </si>
+  <si>
+    <t>Ref docs - VR Clause 733.06 Table 733.061 AS/NZS 3000, AS/ACIF S009</t>
+  </si>
+  <si>
+    <t>Acceptance criteria - All conduits shall be installed as shown on the VicRoads Standard Drawings and Contract specific drawings, or as otherwise specified.</t>
+  </si>
+  <si>
+    <t>All conduits for electrical and communications cabling shall be installed to conform to the relevant requirements of controlling legislation, regulations, industry codes and standards, including:</t>
+  </si>
+  <si>
+    <t>Installation of conduits shall be carried out in accordance with the following:</t>
+  </si>
+  <si>
+    <t>HD UPVC Plain to be Thrust bore or Open Trench.</t>
+  </si>
+  <si>
+    <t>HDPE continuous (must have ID not less than that of 100 mm HD UPVC for electrical and 90 mm HD UPVC for communications) to be Directional Bore.</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>○ AS/NZS 3000 Electrical installations (Australian/New Zealand Wiring Rules)</t>
+  </si>
+  <si>
+    <t>○ AS/ACIF S009 Installation requirements for customer cabling (Wiring Rules), and any other relevant requirements of the Australian Communications and Media Authority (ACMA) for connections to telecommunication carriers’ network.</t>
+  </si>
+  <si>
+    <t>Freq - Each Lot</t>
+  </si>
+  <si>
+    <t>Key - I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3 - Bedding Material/Placement </t>
+  </si>
+  <si>
+    <t>Ref docs - VR Clause 733.08</t>
+  </si>
+  <si>
+    <t>Acceptance criteria - Bedding material does comply with the requirements of Table 733.081.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has all the above been completed? </t>
+  </si>
+  <si>
+    <t>○ Minimum 80 mm bedding below conduits on earth foundation.</t>
+  </si>
+  <si>
+    <t>○ Minimum 200 mm bedding below conduits on rock foundation.</t>
+  </si>
+  <si>
+    <t>○ Bedding placed to full width of trench, and between conduits as shown on trench details on latest revision IFC drawings.</t>
+  </si>
+  <si>
+    <t>○ Shaped sufficiently to maintain the conduit in line as the sections are placed.</t>
+  </si>
+  <si>
+    <t>Material Compliance for Bedding/NATA Test Report</t>
+  </si>
+  <si>
+    <t>3.4 - Bedding Material/Placement</t>
+  </si>
+  <si>
+    <t>Acceptance criteria - Once the bedding material has been laid and the conduits put in place, works shall not proceed prior to inspection by Superintendent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approval to proceed? </t>
+  </si>
+  <si>
+    <t>Key - H, I</t>
+  </si>
+  <si>
+    <t>3.5 - Bedding Material/Placement</t>
+  </si>
+  <si>
+    <t>Acceptance criteria - When conduit sections are in position, additional layers of bedding material shall be placed and compacted to a height 150 mm above the bedding previously placed.</t>
+  </si>
+  <si>
+    <t>○ Bedding material must not be the same material excavated for the trench, it shall be clearly identifiable as introduced material.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6 - Conduits for Traffic Signals/ITS/Public Lighting </t>
+  </si>
+  <si>
+    <t>Ref docs - VR Clause 733.06</t>
+  </si>
+  <si>
+    <t>Acceptance criteria - a)	All conduits shall terminate in a pit in accordance with VicRoads Standard Drawing TC 1207, TC-1230 and TC-2200 – TC223.</t>
+  </si>
+  <si>
+    <t>A 50 mm electrical (orange) conduit shall be used to convey the detector feeder cable from the detector pit to the cable pit, as shown in VicRoads Standard Drawing TC 1207.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has all the above been completed correctly and to a high standard? </t>
+  </si>
+  <si>
+    <t>b) Only one size conduit shall be used for a complete run between pits; unequal size conduits shall not be joined in the ground.</t>
+  </si>
+  <si>
+    <t>c) All conduits shall be temporarily sealed prior to cabling to avoid blockage.</t>
+  </si>
+  <si>
+    <t>d) Changes in conduit direction or depth shall be made by natural set or in the case of bottom entry, by means of a swept bend; elbows or tees shall not be used.</t>
+  </si>
+  <si>
+    <t>e) All conduit joints shall be correctly prepared and sealed with approved solvent cement.</t>
+  </si>
+  <si>
+    <t>f) Conduits for detector cables shall be installed as shown in VicRoads Standard Drawings TC 1207 and TC 1320; and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freq - Each Lot </t>
+  </si>
+  <si>
+    <t>Key - S, I</t>
+  </si>
+  <si>
+    <t>Installation Records from Subcontractor</t>
+  </si>
+  <si>
+    <t>3.7 - Draw Cords</t>
+  </si>
+  <si>
+    <t>Ref docs - VR Clause 733.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptance criteria - Draw Cords to be 3 mm diameter and with a minimum breaking strain of 1.6 kN. </t>
+  </si>
+  <si>
+    <t>Where the conduit terminates in a pit</t>
+  </si>
+  <si>
+    <t>Where conduits do not terminate into a pit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has all the above been completed correctly and to VicRoads standard? </t>
+  </si>
+  <si>
+    <t>Yes,No,N/A</t>
+  </si>
+  <si>
+    <t>○ Have no less than 500 mm of the draw cord tied to a marker peg 25 mm x 25 mm, no less than 300 mm long, left coiled in the pit for future use.</t>
+  </si>
+  <si>
+    <t>○ Be tied to a marker peg 100 mm x 100 mm, not less than 400 mm long, driven firmly into the ground with the top 50 mm projecting above finished surface and painted yellow.</t>
+  </si>
+  <si>
+    <t>Material Conformance Certificate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1 - Material Properties </t>
+  </si>
+  <si>
+    <t>Acceptance criteria - Backfill material properties to be as per Table 733.081.</t>
+  </si>
+  <si>
+    <t>NATA Test Report (if applicable)</t>
+  </si>
+  <si>
+    <t>4.2 - Filling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptance criteria - Unless otherwise specified or shown on the drawings, selected and common backfill shall be placed and compacted as follows under, around, and above the conduit after the sections are bedded: </t>
+  </si>
+  <si>
+    <t>○ Place and compact selected backfill 400 mm above bedding (in non-trafficable areas) remaining fill to be common backfill.</t>
+  </si>
+  <si>
+    <t>○ Place and compact selected backfill to subgrade level (in area’s to be paved)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptance criteria - All pavement material shall have during compaction, uniform moisture content within the range 85% to 115% of the optimum moisture content as determined in the Modified Compaction test. </t>
+  </si>
+  <si>
+    <t>○ Compacted to refusal using handheld mechanical equipment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4 - Compaction – Area’s pavement layer </t>
+  </si>
+  <si>
+    <t>Acceptance criteria - Where specified, pavement material shall be assessed for compaction in lots as defined in Section 173. The number of tests per lot shall be three. All pavement material shall have during compaction, uniform moisture content within the range 85% to 115% of the optimum moisture content as determined in the Modified Compaction test. All pavement layers shall be placed and compacted in layers to a density ratio of not less than 98%. The calculation of density ratio shall be based on Modified compactive effort.</t>
+  </si>
+  <si>
+    <t>4.5 - Warning Tape</t>
+  </si>
+  <si>
+    <t>Ref docs - AS/NZS2648.1</t>
+  </si>
+  <si>
+    <t>Acceptance criteria - Where marker tapes overlap electrical tape to overlay communications tape:</t>
+  </si>
+  <si>
+    <t>○ Marker tape 100 mm wide complying with AS/NZS2648.1 coloured orange with black lettering “DANGER BURIED ELECTRIC CABLE BELOW” inscribed at regular intervals installed 300 mm above the conduits in all trenches where electrical conduits are provided.</t>
+  </si>
+  <si>
+    <t>○ Marker tape 100 mm wide with two stainless steel tracer wires coloured white with black lettering “DANGER BURIED COMMUNICATION CABLE BELOW” inscribed at regular intervals installed 300 mm above the conduits. In all trenches where communication conduits are provided at least two meters of each tracer wire shall be anchored to and neatly coiled in each communication pit.</t>
+  </si>
+  <si>
+    <t>○ Where both electrical and communication conduits are provided in a trench two marker tapes shall be provided one for electrical and the other for communication conduits.</t>
+  </si>
+  <si>
+    <t>8.1 - As-built Information</t>
+  </si>
+  <si>
+    <t>Ref docs - VR Clause 733.12</t>
+  </si>
+  <si>
+    <t>Acceptance criteria - Identification and recording as follows:</t>
+  </si>
+  <si>
+    <t>The actual installed location and depth of conduits on the as-built drawings.</t>
+  </si>
+  <si>
+    <t>Has all the above been completed correctly and to a high standard?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">○ All conduit locations not identified by pits immediately installed at the ends shall be marked with pegs 75 x 38 mm stakes projecting 0.4 m above the ground, with the top 150 mm painted yellow, or as otherwise agreed by the Superintendent. </t>
+  </si>
+  <si>
+    <t>○ Conduits under road pavement shall be marked with stakes clear of the road pavement.</t>
+  </si>
+  <si>
+    <t>○ Conduits not under road pavement shall be marked with stakes at the ends, at changes of direction, and at intervals of not more than 30 m.</t>
+  </si>
+  <si>
+    <t>Survey Conformance Report</t>
+  </si>
+  <si>
+    <t>9.1 - Test Reports</t>
+  </si>
+  <si>
+    <t>Ref docs - VIC Roads Specifications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptance criteria - All Test reports received and reviewed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has all the above been proven to meet and/or exceed minimum tested requirements? </t>
+  </si>
+  <si>
+    <t>Key - R, I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NATA Endorsed Test Reports </t>
+  </si>
+  <si>
+    <t>9.2 - Product Non-Conformance</t>
+  </si>
+  <si>
+    <t>Ref docs - CQMP</t>
+  </si>
+  <si>
+    <t>Acceptance criteria - All Product Non-Conformance(s) recorded and closed (if applicable)</t>
+  </si>
+  <si>
+    <t>NCR reports</t>
+  </si>
+  <si>
+    <t>Ref docs - VR Clause Table 733.081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3 - Compaction - Areas not to be paved and below pavement </t>
   </si>
 </sst>
 </file>
@@ -312,7 +603,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -506,6 +797,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5D5E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -669,7 +972,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -682,6 +985,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="16" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1037,10 +1356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I148"/>
+  <dimension ref="A1:I191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,7 +1404,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -1095,7 +1414,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I2" s="7"/>
     </row>
@@ -1132,7 +1451,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1146,7 +1465,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1160,7 +1479,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1174,7 +1493,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1188,7 +1507,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1202,7 +1521,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1216,7 +1535,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1230,7 +1549,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1240,13 +1559,15 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="4"/>
+      <c r="A13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1258,7 +1579,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1272,7 +1593,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1286,7 +1607,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1296,11 +1617,11 @@
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>14</v>
+      <c r="A17" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1310,35 +1631,41 @@
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="B19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>18</v>
+      <c r="B20" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>15</v>
+      <c r="B21" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1346,47 +1673,50 @@
         <v>12</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>20</v>
+      <c r="B23" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>21</v>
+      <c r="B24" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>35</v>
+      <c r="A25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>24</v>
+      <c r="A26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>18</v>
+      <c r="A27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1394,7 +1724,7 @@
         <v>12</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1402,7 +1732,7 @@
         <v>12</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1410,282 +1740,291 @@
         <v>12</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>21</v>
+      <c r="A31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="B33" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="B41" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>12</v>
       </c>
@@ -1693,672 +2032,1076 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B106" s="1" t="s">
+      <c r="B105" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B114" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B157" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B114" s="1" t="s">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C172" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B174" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C177" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B180" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B122" s="1" t="s">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C182" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B124" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B131" s="1" t="s">
+      <c r="B183" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B190" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>14</v>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C191" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H148" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H191" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
